--- a/polling_errors.xlsx
+++ b/polling_errors.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanhuston/Documents/Politics/election2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DE72E560-3EA2-2B4A-A4F7-13321FF13C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F10D8-E366-DE40-BC62-957694FC9342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="-30120" yWindow="-19240" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="polling_errors" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Biden percentage of presidential vote, error by state/district</t>
   </si>
@@ -220,12 +220,15 @@
   </si>
   <si>
     <t>+ washingtonpost.com, 11/5/2020, 3:45 EST</t>
+  </si>
+  <si>
+    <t>&gt; 4%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -707,10 +710,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1065,21 +1069,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1092,8 +1096,11 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1111,8 +1118,12 @@
         <f>ABS(D4)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="str">
+        <f>IF(E4&gt;0.04, A4, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1123,15 +1134,19 @@
         <v>33</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D58" si="0">(C5-B5)/100</f>
+        <f>(C5-B5)/100</f>
         <v>-0.10600000000000001</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E58" si="1">ABS(D5)</f>
+        <f>ABS(D5)</f>
         <v>0.10600000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="str">
+        <f>IF(E5&gt;0.04, A5, "")</f>
+        <v>Alaska</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1142,15 +1157,19 @@
         <v>50.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D6:D58" si="0">(C6-B6)/100</f>
         <v>1.7999999999999971E-2</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E6:E58" si="1">ABS(D6)</f>
         <v>1.7999999999999971E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="str">
+        <f t="shared" ref="F6:F58" si="2">IF(E6&gt;0.04, A6, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1168,8 +1187,12 @@
         <f t="shared" si="1"/>
         <v>1.7000000000000029E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1210,12 @@
         <f t="shared" si="1"/>
         <v>3.6999999999999957E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1206,8 +1233,12 @@
         <f t="shared" si="1"/>
         <v>1.7999999999999971E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1225,8 +1256,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1244,8 +1279,12 @@
         <f t="shared" si="1"/>
         <v>1.0000000000000141E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1263,8 +1302,12 @@
         <f t="shared" si="1"/>
         <v>1.4000000000000058E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1282,8 +1325,12 @@
         <f t="shared" si="1"/>
         <v>1.3000000000000043E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1301,8 +1348,12 @@
         <f t="shared" si="1"/>
         <v>6.000000000000014E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1320,8 +1371,12 @@
         <f t="shared" si="1"/>
         <v>5.9999999999999429E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1339,8 +1394,12 @@
         <f t="shared" si="1"/>
         <v>5.2999999999999971E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f t="shared" si="2"/>
+        <v>Idaho</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1358,8 +1417,12 @@
         <f t="shared" si="1"/>
         <v>2.0000000000000282E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1377,8 +1440,12 @@
         <f t="shared" si="1"/>
         <v>2.7999999999999973E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1396,8 +1463,12 @@
         <f t="shared" si="1"/>
         <v>1.3999999999999986E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1415,8 +1486,12 @@
         <f t="shared" si="1"/>
         <v>1.0000000000000141E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1434,8 +1509,12 @@
         <f t="shared" si="1"/>
         <v>4.2999999999999969E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f t="shared" si="2"/>
+        <v>Kentucky</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1532,12 @@
         <f t="shared" si="1"/>
         <v>2.6999999999999958E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1472,8 +1555,12 @@
         <f t="shared" si="1"/>
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1491,8 +1578,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1510,8 +1601,12 @@
         <f t="shared" si="1"/>
         <v>1.7000000000000029E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1529,8 +1624,12 @@
         <f t="shared" si="1"/>
         <v>2.3999999999999987E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1548,8 +1647,12 @@
         <f t="shared" si="1"/>
         <v>4.6000000000000013E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="2"/>
+        <v>ME-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1567,8 +1670,12 @@
         <f t="shared" si="1"/>
         <v>8.0000000000000418E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1586,8 +1693,12 @@
         <f t="shared" si="1"/>
         <v>7.0000000000000288E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1605,8 +1716,12 @@
         <f t="shared" si="1"/>
         <v>3.9999999999999862E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1624,8 +1739,12 @@
         <f t="shared" si="1"/>
         <v>2.3000000000000041E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1643,8 +1762,12 @@
         <f t="shared" si="1"/>
         <v>4.7999999999999973E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f t="shared" si="2"/>
+        <v>Montana</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1662,8 +1785,12 @@
         <f t="shared" si="1"/>
         <v>4.8999999999999988E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f t="shared" si="2"/>
+        <v>NE-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1681,8 +1808,12 @@
         <f t="shared" si="1"/>
         <v>4.6000000000000013E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f t="shared" si="2"/>
+        <v>NE-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1700,8 +1831,12 @@
         <f t="shared" si="1"/>
         <v>3.3999999999999989E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1719,8 +1854,12 @@
         <f t="shared" si="1"/>
         <v>4.0000000000000565E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1738,8 +1877,12 @@
         <f t="shared" si="1"/>
         <v>1.2999999999999972E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1757,8 +1900,12 @@
         <f t="shared" si="1"/>
         <v>2.200000000000003E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1776,8 +1923,12 @@
         <f t="shared" si="1"/>
         <v>3.0000000000000426E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1795,8 +1946,12 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1814,8 +1969,12 @@
         <f t="shared" si="1"/>
         <v>1.9999999999999575E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1833,8 +1992,12 @@
         <f t="shared" si="1"/>
         <v>7.0000000000000034E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v>North Dakota</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2015,12 @@
         <f t="shared" si="1"/>
         <v>1.5999999999999945E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1871,8 +2038,12 @@
         <f t="shared" si="1"/>
         <v>3.9000000000000055E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1890,8 +2061,12 @@
         <f t="shared" si="1"/>
         <v>1.8000000000000044E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1909,8 +2084,12 @@
         <f t="shared" si="1"/>
         <v>2.1000000000000015E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1928,8 +2107,12 @@
         <f t="shared" si="1"/>
         <v>3.5000000000000003E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1947,8 +2130,12 @@
         <f t="shared" si="1"/>
         <v>1.2000000000000028E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1966,8 +2153,12 @@
         <f t="shared" si="1"/>
         <v>3.2999999999999974E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1985,8 +2176,12 @@
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2004,8 +2199,12 @@
         <f t="shared" si="1"/>
         <v>1.1000000000000015E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -2023,8 +2222,12 @@
         <f t="shared" si="1"/>
         <v>4.1000000000000016E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="str">
+        <f t="shared" si="2"/>
+        <v>Utah</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -2042,8 +2245,12 @@
         <f t="shared" si="1"/>
         <v>1.5999999999999945E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -2061,8 +2268,12 @@
         <f t="shared" si="1"/>
         <v>9.9999999999994321E-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2080,8 +2291,12 @@
         <f t="shared" si="1"/>
         <v>8.0000000000000418E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -2099,8 +2314,12 @@
         <f t="shared" si="1"/>
         <v>3.8999999999999986E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -2118,8 +2337,12 @@
         <f t="shared" si="1"/>
         <v>2.7000000000000027E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2137,30 +2360,34 @@
         <f t="shared" si="1"/>
         <v>4.1999999999999996E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="str">
+        <f t="shared" si="2"/>
+        <v>Wyoming</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="2">
-        <f>SUM(D4:D59)/55</f>
+        <f>AVERAGE(D4:D59)</f>
         <v>-1.4018181818181819E-2</v>
       </c>
       <c r="E60" s="2">
-        <f>SUM(E4:E59)/55</f>
+        <f>AVERAGE(E4:E59)</f>
         <v>2.3327272727272731E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
